--- a/20221111_C社予実データ.xlsx
+++ b/20221111_C社予実データ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Gpa171sv\krc-prj$\全社プロジェクト\DXP事業検討チーム（外部共有）\00_定例MTG\221111\森中さん提供データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\DXP事業検討チーム（外部共有）\00_定例MTG\221111\森中さん提供データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709D24B9-C1C8-4801-99D4-DACDC156A7C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F72C625-BECE-4F1F-8DCB-F713ED870DC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7E9EFF30-A1BE-4945-BC23-84566E15A8D7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="1">
   <si>
     <t>-</t>
   </si>
@@ -1410,11 +1410,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FB1A73-C8EE-46E3-BB5B-5A85871FEECC}">
-  <dimension ref="B3:C38"/>
+  <dimension ref="B3:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1706,19 +1704,118 @@
         <v>85600</v>
       </c>
     </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39" s="1">
+        <v>202104</v>
+      </c>
+      <c r="C39" s="2">
+        <v>92800</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="1">
+        <v>202105</v>
+      </c>
+      <c r="C40" s="2">
+        <v>87800</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="1">
+        <v>202106</v>
+      </c>
+      <c r="C41" s="2">
+        <v>109780</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42" s="1">
+        <v>202107</v>
+      </c>
+      <c r="C42" s="2">
+        <v>142400</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43" s="1">
+        <v>202108</v>
+      </c>
+      <c r="C43" s="2">
+        <v>99040</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" s="1">
+        <v>202109</v>
+      </c>
+      <c r="C44" s="2">
+        <v>129600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" s="1">
+        <v>202110</v>
+      </c>
+      <c r="C45" s="2">
+        <v>72400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
+        <v>202111</v>
+      </c>
+      <c r="C46" s="2">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <v>202112</v>
+      </c>
+      <c r="C47" s="2">
+        <v>181400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <v>202201</v>
+      </c>
+      <c r="C48" s="2">
+        <v>113200</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <v>202202</v>
+      </c>
+      <c r="C49" s="2">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
+        <v>202203</v>
+      </c>
+      <c r="C50" s="2">
+        <v>97200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF267048-7C2A-45B1-AB00-7C05D796D052}">
-  <dimension ref="B2:N38"/>
+  <dimension ref="B2:N50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3101,29 +3198,29 @@
       <c r="F35" s="2">
         <v>86000</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>0</v>
+      <c r="G35" s="2">
+        <v>96200</v>
+      </c>
+      <c r="H35" s="2">
+        <v>96200</v>
+      </c>
+      <c r="I35" s="2">
+        <v>96200</v>
+      </c>
+      <c r="J35" s="2">
+        <v>103200</v>
+      </c>
+      <c r="K35" s="2">
+        <v>113200</v>
+      </c>
+      <c r="L35" s="2">
+        <v>113200</v>
+      </c>
+      <c r="M35" s="2">
+        <v>122200</v>
+      </c>
+      <c r="N35" s="2">
+        <v>122200</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.4">
@@ -3139,32 +3236,32 @@
       <c r="E36" s="2">
         <v>93000</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>0</v>
+      <c r="F36" s="2">
+        <v>96200</v>
+      </c>
+      <c r="G36" s="2">
+        <v>96200</v>
+      </c>
+      <c r="H36" s="2">
+        <v>96200</v>
+      </c>
+      <c r="I36" s="2">
+        <v>103200</v>
+      </c>
+      <c r="J36" s="2">
+        <v>113200</v>
+      </c>
+      <c r="K36" s="2">
+        <v>113200</v>
+      </c>
+      <c r="L36" s="2">
+        <v>122200</v>
+      </c>
+      <c r="M36" s="2">
+        <v>122200</v>
+      </c>
+      <c r="N36" s="2">
+        <v>122200</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.4">
@@ -3177,35 +3274,35 @@
       <c r="D37" s="2">
         <v>95000</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>0</v>
+      <c r="E37" s="2">
+        <v>96200</v>
+      </c>
+      <c r="F37" s="2">
+        <v>96200</v>
+      </c>
+      <c r="G37" s="2">
+        <v>96200</v>
+      </c>
+      <c r="H37" s="2">
+        <v>103200</v>
+      </c>
+      <c r="I37" s="2">
+        <v>113200</v>
+      </c>
+      <c r="J37" s="2">
+        <v>113200</v>
+      </c>
+      <c r="K37" s="2">
+        <v>122200</v>
+      </c>
+      <c r="L37" s="2">
+        <v>122200</v>
+      </c>
+      <c r="M37" s="2">
+        <v>122200</v>
+      </c>
+      <c r="N37" s="2">
+        <v>153000</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.4">
@@ -3215,43 +3312,482 @@
       <c r="C38" s="2">
         <v>93200</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>0</v>
+      <c r="D38" s="2">
+        <v>96200</v>
+      </c>
+      <c r="E38" s="2">
+        <v>101200</v>
+      </c>
+      <c r="F38" s="2">
+        <v>101200</v>
+      </c>
+      <c r="G38" s="2">
+        <v>103200</v>
+      </c>
+      <c r="H38" s="2">
+        <v>113200</v>
+      </c>
+      <c r="I38" s="2">
+        <v>113200</v>
+      </c>
+      <c r="J38" s="2">
+        <v>122200</v>
+      </c>
+      <c r="K38" s="2">
+        <v>122200</v>
+      </c>
+      <c r="L38" s="2">
+        <v>122200</v>
+      </c>
+      <c r="M38" s="2">
+        <v>148000</v>
+      </c>
+      <c r="N38" s="2">
+        <v>148000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B39" s="1">
+        <v>202104</v>
+      </c>
+      <c r="C39" s="2">
+        <v>106000</v>
+      </c>
+      <c r="D39" s="2">
+        <v>99600</v>
+      </c>
+      <c r="E39" s="2">
+        <v>101200</v>
+      </c>
+      <c r="F39" s="2">
+        <v>103200</v>
+      </c>
+      <c r="G39" s="2">
+        <v>113200</v>
+      </c>
+      <c r="H39" s="2">
+        <v>113200</v>
+      </c>
+      <c r="I39" s="2">
+        <v>122200</v>
+      </c>
+      <c r="J39" s="2">
+        <v>122200</v>
+      </c>
+      <c r="K39" s="2">
+        <v>122200</v>
+      </c>
+      <c r="L39" s="2">
+        <v>148000</v>
+      </c>
+      <c r="M39" s="2">
+        <v>148000</v>
+      </c>
+      <c r="N39" s="2">
+        <v>148000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B40" s="1">
+        <v>202105</v>
+      </c>
+      <c r="C40" s="2">
+        <v>104200</v>
+      </c>
+      <c r="D40" s="2">
+        <v>107300</v>
+      </c>
+      <c r="E40" s="2">
+        <v>103620</v>
+      </c>
+      <c r="F40" s="2">
+        <v>112640</v>
+      </c>
+      <c r="G40" s="2">
+        <v>112640</v>
+      </c>
+      <c r="H40" s="2">
+        <v>120060</v>
+      </c>
+      <c r="I40" s="2">
+        <v>120340</v>
+      </c>
+      <c r="J40" s="2">
+        <v>120620</v>
+      </c>
+      <c r="K40" s="2">
+        <v>143000</v>
+      </c>
+      <c r="L40" s="2">
+        <v>143000</v>
+      </c>
+      <c r="M40" s="2">
+        <v>143000</v>
+      </c>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B41" s="1">
+        <v>202106</v>
+      </c>
+      <c r="C41" s="2">
+        <v>120320</v>
+      </c>
+      <c r="D41" s="2">
+        <v>108000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>119940</v>
+      </c>
+      <c r="F41" s="2">
+        <v>117540</v>
+      </c>
+      <c r="G41" s="2">
+        <v>116760</v>
+      </c>
+      <c r="H41" s="2">
+        <v>144100</v>
+      </c>
+      <c r="I41" s="2">
+        <v>134220</v>
+      </c>
+      <c r="J41" s="2">
+        <v>136600</v>
+      </c>
+      <c r="K41" s="2">
+        <v>136600</v>
+      </c>
+      <c r="L41" s="2">
+        <v>136600</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B42" s="1">
+        <v>202107</v>
+      </c>
+      <c r="C42" s="2">
+        <v>133200</v>
+      </c>
+      <c r="D42" s="2">
+        <v>111940</v>
+      </c>
+      <c r="E42" s="2">
+        <v>105940</v>
+      </c>
+      <c r="F42" s="2">
+        <v>93960</v>
+      </c>
+      <c r="G42" s="2">
+        <v>122900</v>
+      </c>
+      <c r="H42" s="2">
+        <v>109040</v>
+      </c>
+      <c r="I42" s="2">
+        <v>124200</v>
+      </c>
+      <c r="J42" s="2">
+        <v>124200</v>
+      </c>
+      <c r="K42" s="2">
+        <v>124200</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B43" s="1">
+        <v>202108</v>
+      </c>
+      <c r="C43" s="2">
+        <v>132140</v>
+      </c>
+      <c r="D43" s="2">
+        <v>134880</v>
+      </c>
+      <c r="E43" s="2">
+        <v>112800</v>
+      </c>
+      <c r="F43" s="2">
+        <v>133200</v>
+      </c>
+      <c r="G43" s="2">
+        <v>123600</v>
+      </c>
+      <c r="H43" s="2">
+        <v>124200</v>
+      </c>
+      <c r="I43" s="2">
+        <v>124200</v>
+      </c>
+      <c r="J43" s="2">
+        <v>124200</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B44" s="1">
+        <v>202109</v>
+      </c>
+      <c r="C44" s="2">
+        <v>140400</v>
+      </c>
+      <c r="D44" s="2">
+        <v>116600</v>
+      </c>
+      <c r="E44" s="2">
+        <v>138079</v>
+      </c>
+      <c r="F44" s="2">
+        <v>141435</v>
+      </c>
+      <c r="G44" s="2">
+        <v>124200</v>
+      </c>
+      <c r="H44" s="2">
+        <v>124200</v>
+      </c>
+      <c r="I44" s="2">
+        <v>124200</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B45" s="1">
+        <v>202110</v>
+      </c>
+      <c r="C45" s="2">
+        <v>98800</v>
+      </c>
+      <c r="D45" s="2">
+        <v>141400</v>
+      </c>
+      <c r="E45" s="2">
+        <v>135200</v>
+      </c>
+      <c r="F45" s="2">
+        <v>124200</v>
+      </c>
+      <c r="G45" s="2">
+        <v>124200</v>
+      </c>
+      <c r="H45" s="2">
+        <v>124200</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
+        <v>202111</v>
+      </c>
+      <c r="C46" s="2">
+        <v>111200</v>
+      </c>
+      <c r="D46" s="2">
+        <v>168800</v>
+      </c>
+      <c r="E46" s="2">
+        <v>124200</v>
+      </c>
+      <c r="F46" s="2">
+        <v>124200</v>
+      </c>
+      <c r="G46" s="2">
+        <v>124200</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <v>202112</v>
+      </c>
+      <c r="C47" s="2">
+        <v>188600</v>
+      </c>
+      <c r="D47" s="2">
+        <v>126000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>133249</v>
+      </c>
+      <c r="F47" s="2">
+        <v>149016</v>
+      </c>
+      <c r="G47" s="2">
+        <v>181375</v>
+      </c>
+      <c r="H47" s="2">
+        <v>181375</v>
+      </c>
+      <c r="I47" s="2">
+        <v>181375</v>
+      </c>
+      <c r="J47" s="2">
+        <v>181375</v>
+      </c>
+      <c r="K47" s="2">
+        <v>181375</v>
+      </c>
+      <c r="L47" s="2">
+        <v>181375</v>
+      </c>
+      <c r="M47" s="2">
+        <v>181375</v>
+      </c>
+      <c r="N47" s="2">
+        <v>181375</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <v>202201</v>
+      </c>
+      <c r="C48" s="2">
+        <v>144400</v>
+      </c>
+      <c r="D48" s="2">
+        <v>129400</v>
+      </c>
+      <c r="E48" s="2">
+        <v>152800</v>
+      </c>
+      <c r="F48" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="G48" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="H48" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="I48" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="J48" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="K48" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="L48" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="M48" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="N48" s="2">
+        <v>174888.45755693581</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <v>202202</v>
+      </c>
+      <c r="C49" s="2">
+        <v>105200</v>
+      </c>
+      <c r="D49" s="2">
+        <v>143200</v>
+      </c>
+      <c r="E49" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="F49" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="G49" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="H49" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="I49" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="J49" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="K49" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="L49" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="M49" s="2">
+        <v>174888.45755693581</v>
+      </c>
+      <c r="N49" s="2">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
+        <v>202203</v>
+      </c>
+      <c r="C50" s="2">
+        <v>102000</v>
+      </c>
+      <c r="D50" s="2">
+        <v>151500</v>
+      </c>
+      <c r="E50" s="2">
+        <v>148000</v>
+      </c>
+      <c r="F50" s="2">
+        <v>148000</v>
+      </c>
+      <c r="G50" s="2">
+        <v>172000</v>
+      </c>
+      <c r="H50" s="2">
+        <v>156000</v>
+      </c>
+      <c r="I50" s="2">
+        <v>156000</v>
+      </c>
+      <c r="J50" s="2">
+        <v>164000</v>
+      </c>
+      <c r="K50" s="2">
+        <v>164000</v>
+      </c>
+      <c r="L50" s="2">
+        <v>164000</v>
+      </c>
+      <c r="M50" s="2">
+        <v>177013.38199513382</v>
+      </c>
+      <c r="N50" s="2">
+        <v>177013.38199513382</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>